--- a/data/trans_bre/P57_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-2.306726134014021</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.319253042556381</v>
+        <v>-2.319253042556384</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.1696086504150439</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.2027547011759433</v>
+        <v>-0.2027547011759435</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.683714452509436</v>
+        <v>-7.024134660193934</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.034108994197615</v>
+        <v>-6.338688325593825</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4781237795148575</v>
+        <v>-0.4576969324159081</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4432364208662838</v>
+        <v>-0.4552056896824446</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.115757019832198</v>
+        <v>2.30920850731916</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.282341640167934</v>
+        <v>1.473028439746279</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1894858172491962</v>
+        <v>0.2130725636503993</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1577038848028459</v>
+        <v>0.1639099052489719</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>2.266332520425947</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.966637240621357</v>
+        <v>2.96663724062136</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.1843288073988191</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.3069699954554518</v>
+        <v>0.3069699954554521</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.058944770972379</v>
+        <v>-2.956402733297682</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6797223561315052</v>
+        <v>-1.09237562597295</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2213110934123093</v>
+        <v>-0.1882117640619181</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06316381586203243</v>
+        <v>-0.09698738700749965</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.27583230759372</v>
+        <v>7.927414277378107</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.451376207440157</v>
+        <v>6.610337899262763</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7773806618792855</v>
+        <v>0.840156763230068</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8349621894380121</v>
+        <v>0.8279835423722969</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1649982072990765</v>
+        <v>-0.7081247704255202</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.876433051006221</v>
+        <v>-1.262023794864325</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.01327906695042204</v>
+        <v>-0.03367771650577882</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.06573265530378024</v>
+        <v>-0.1047530441717919</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.44208602736659</v>
+        <v>16.67784138000247</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.916234800553553</v>
+        <v>9.499100514757504</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.8719011442593411</v>
+        <v>0.8191688004805584</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.7811004089203731</v>
+        <v>0.7610998588104206</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>1.774173715832678</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-2.243883912436864</v>
+        <v>-2.24388391243687</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.09395662292673965</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1539426421790919</v>
+        <v>-0.1539426421790922</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.95931870276901</v>
+        <v>-1.571416323679501</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.031430830888243</v>
+        <v>-5.041846966353662</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09590282685938979</v>
+        <v>-0.07576330384026375</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3123878061161672</v>
+        <v>-0.3043596231218165</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.381917167411425</v>
+        <v>5.833798087861696</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5376458813211246</v>
+        <v>0.7310534054047851</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3062089896114307</v>
+        <v>0.3348700961962223</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.04966038509272698</v>
+        <v>0.06137603461687972</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>4.307888155824491</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.28959269002245</v>
+        <v>6.289592690022452</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.157307128560395</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.3271461798083364</v>
+        <v>0.3271461798083367</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7109165970477127</v>
+        <v>-0.9304334278706068</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.85170405072686</v>
+        <v>1.837485654975531</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.02442448515753407</v>
+        <v>-0.03099205212069407</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.07908142124146005</v>
+        <v>0.07952873554143264</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.316994869702244</v>
+        <v>9.02227280803965</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.06332821717649</v>
+        <v>9.910487294488863</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.375519217235583</v>
+        <v>0.3661499273011526</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.6076608444226725</v>
+        <v>0.592294144248549</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.6070711603843</v>
+        <v>15.59668821863029</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>12.15357522076161</v>
+        <v>12.35859987669706</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.590531281023422</v>
+        <v>1.677689539532213</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.218649018786077</v>
+        <v>1.318309094960898</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.21257506270617</v>
+        <v>23.74243812276532</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>20.476996555742</v>
+        <v>20.46604659968557</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.047327174082873</v>
+        <v>6.548019213828829</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>7.578414397590477</v>
+        <v>8.355892885864675</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.597385059600339</v>
+        <v>3.101797224993721</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.62860498854208</v>
+        <v>2.46355292309151</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.1357243314764053</v>
+        <v>0.1561159568020546</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.1785435656246744</v>
+        <v>0.1725241235641914</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.992144269123229</v>
+        <v>6.862549816897312</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.520036871810754</v>
+        <v>5.625103559155676</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.4002680846922446</v>
+        <v>0.3945507389561967</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.4420146347974472</v>
+        <v>0.4483142549655141</v>
       </c>
     </row>
     <row r="25">
